--- a/MevenDemoTest/Excel_Output/GeneratedExcelResults/CleartripFlightSearchResults_Hyderabad → Visakhapatnam_Visakhapatnam → Hyderabad.xlsx
+++ b/MevenDemoTest/Excel_Output/GeneratedExcelResults/CleartripFlightSearchResults_Hyderabad → Visakhapatnam_Visakhapatnam → Hyderabad.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13275" windowHeight="4020"/>
   </bookViews>
   <sheets>
-    <sheet name="Onward Journey" r:id="rId3" sheetId="1"/>
-    <sheet name="Return Journey" r:id="rId4" sheetId="2"/>
+    <sheet name="Onward Journey" sheetId="1" r:id="rId1"/>
+    <sheet name="Return Journey" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Thu, 09 Apr</t>
   </si>
@@ -42,6 +45,33 @@
     <t>Price</t>
   </si>
   <si>
+    <t>SpiceJet SG-421</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>1h 10m</t>
+  </si>
+  <si>
+    <t>Rs.14,343</t>
+  </si>
+  <si>
+    <t>SpiceJet SG-1059</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>1h 35m</t>
+  </si>
+  <si>
     <t>IndiGo 6E-6211</t>
   </si>
   <si>
@@ -66,9 +96,6 @@
     <t>10:40</t>
   </si>
   <si>
-    <t>1h 35m</t>
-  </si>
-  <si>
     <t>IndiGo 6E-879</t>
   </si>
   <si>
@@ -78,9 +105,6 @@
     <t>11:45</t>
   </si>
   <si>
-    <t>1h 10m</t>
-  </si>
-  <si>
     <t>IndiGo 6E-6366</t>
   </si>
   <si>
@@ -93,6 +117,24 @@
     <t>1h 15m</t>
   </si>
   <si>
+    <t>IndiGo 6E-626</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>IndiGo 6E-969</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
     <t>IndiGo 6E-611</t>
   </si>
   <si>
@@ -102,51 +144,9 @@
     <t>18:05</t>
   </si>
   <si>
-    <t>IndiGo 6E-969</t>
-  </si>
-  <si>
-    <t>17:35</t>
-  </si>
-  <si>
-    <t>18:50</t>
-  </si>
-  <si>
-    <t>SpiceJet SG-421</t>
-  </si>
-  <si>
-    <t>07:45</t>
-  </si>
-  <si>
-    <t>08:55</t>
-  </si>
-  <si>
-    <t>Rs.14,608</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-626</t>
-  </si>
-  <si>
-    <t>15:55</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
     <t>Rs.14,945</t>
   </si>
   <si>
-    <t>SpiceJet SG-1059</t>
-  </si>
-  <si>
-    <t>18:55</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>Rs.15,158</t>
-  </si>
-  <si>
     <t>Air India AI-952</t>
   </si>
   <si>
@@ -177,6 +177,21 @@
     <t>22:10</t>
   </si>
   <si>
+    <t>IndiGo 6E-7282</t>
+  </si>
+  <si>
+    <t>06:45</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Rs.14,485</t>
+  </si>
+  <si>
     <t>IndiGo 6E-6809</t>
   </si>
   <si>
@@ -186,9 +201,6 @@
     <t>14:15</t>
   </si>
   <si>
-    <t>Rs.14,485</t>
-  </si>
-  <si>
     <t>IndiGo 6E-776</t>
   </si>
   <si>
@@ -204,6 +216,15 @@
     <t>21:30</t>
   </si>
   <si>
+    <t>IndiGo 6E-742</t>
+  </si>
+  <si>
+    <t>22:05</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
     <t>IndiGo 6E-608</t>
   </si>
   <si>
@@ -214,30 +235,6 @@
   </si>
   <si>
     <t>Rs.15,385</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-742</t>
-  </si>
-  <si>
-    <t>22:05</t>
-  </si>
-  <si>
-    <t>23:20</t>
-  </si>
-  <si>
-    <t>IndiGo 6E-7282</t>
-  </si>
-  <si>
-    <t>06:45</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>Rs.16,765</t>
   </si>
   <si>
     <t>IndiGo 6E-783</t>
@@ -268,10 +265,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -283,7 +279,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -301,18 +297,315 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -320,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -337,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -354,7 +647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -371,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -385,27 +678,27 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -416,13 +709,13 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -433,30 +726,30 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -467,60 +760,60 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -528,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -545,58 +838,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -604,33 +897,33 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -641,81 +934,81 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>77</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>